--- a/VIABILIDAD ECONOMICA.xlsx
+++ b/VIABILIDAD ECONOMICA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\1. JOEL\TESIS\G18. GUTIERREZ URIOL - VIGO BRIONES\TESIS\VERSIONS\Tesis-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384AFD7D-8185-4D5C-A875-A664344A387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4803EE0F-BD1F-4C09-951E-BDF7628B164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BA27041F-613A-4078-9EA4-C1E69716A379}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BA27041F-613A-4078-9EA4-C1E69716A379}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempo de desarrollo" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="468">
   <si>
     <t>ESTIMACIÓN DEL TIEMPO DE DESARROLLO</t>
   </si>
@@ -1951,9 +1951,6 @@
     <t>Lapiceros</t>
   </si>
   <si>
-    <t>CD’s</t>
-  </si>
-  <si>
     <t>Tinta para impresora</t>
   </si>
   <si>
@@ -1982,9 +1979,6 @@
   </si>
   <si>
     <t>Asesoría</t>
-  </si>
-  <si>
-    <t>CDs</t>
   </si>
   <si>
     <t>Papel Bond A4</t>
@@ -4676,12 +4670,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4706,31 +4748,94 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4739,39 +4844,6 @@
     <xf numFmtId="0" fontId="55" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4781,63 +4853,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4855,27 +4870,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10309,26 +10303,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="379" t="s">
+      <c r="B1" s="395" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="377" t="s">
+      <c r="B2" s="386" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="377"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="377"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
     </row>
     <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="143" t="s">
@@ -10345,10 +10339,10 @@
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="115"/>
-      <c r="C4" s="378" t="s">
+      <c r="C4" s="394" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="378"/>
+      <c r="D4" s="394"/>
       <c r="E4" s="113"/>
       <c r="F4" s="113"/>
       <c r="G4" s="113"/>
@@ -10386,11 +10380,11 @@
       <c r="H7" s="113"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="389" t="s">
+      <c r="B8" s="390" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="D8" s="391"/>
+      <c r="C8" s="391"/>
+      <c r="D8" s="392"/>
       <c r="E8" s="113"/>
       <c r="F8" s="113"/>
       <c r="G8" s="113"/>
@@ -10406,11 +10400,11 @@
       <c r="H9" s="113"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="380" t="s">
+      <c r="B10" s="396" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="381"/>
-      <c r="D10" s="382"/>
+      <c r="C10" s="397"/>
+      <c r="D10" s="398"/>
       <c r="E10" s="113"/>
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
@@ -10614,11 +10608,11 @@
       <c r="H24" s="113"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="386" t="s">
+      <c r="B25" s="387" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="387"/>
-      <c r="D25" s="388"/>
+      <c r="C25" s="388"/>
+      <c r="D25" s="389"/>
       <c r="E25" s="113"/>
       <c r="F25" s="113"/>
       <c r="G25" s="113"/>
@@ -10634,11 +10628,11 @@
       <c r="H26" s="113"/>
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="383" t="s">
+      <c r="B27" s="399" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="384"/>
-      <c r="D27" s="385"/>
+      <c r="C27" s="400"/>
+      <c r="D27" s="401"/>
       <c r="E27" s="113"/>
       <c r="F27" s="113"/>
       <c r="G27" s="113"/>
@@ -10714,11 +10708,11 @@
       <c r="H32" s="113"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="383" t="s">
+      <c r="B33" s="399" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="384"/>
-      <c r="D33" s="385"/>
+      <c r="C33" s="400"/>
+      <c r="D33" s="401"/>
       <c r="E33" s="113"/>
       <c r="F33" s="113"/>
       <c r="G33" s="113"/>
@@ -10726,7 +10720,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
@@ -11122,17 +11116,17 @@
       <c r="H54" s="113"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="436">
+      <c r="A55" s="376">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B55" s="437" t="s">
-        <v>469</v>
-      </c>
-      <c r="C55" s="438" t="s">
+      <c r="B55" s="377" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="378" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="438">
+      <c r="D55" s="378">
         <v>5</v>
       </c>
       <c r="E55" s="113"/>
@@ -11146,7 +11140,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="307" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C56" s="308" t="s">
         <v>11</v>
@@ -11165,7 +11159,7 @@
         <v>23</v>
       </c>
       <c r="B57" s="307" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C57" s="308" t="s">
         <v>11</v>
@@ -11260,7 +11254,7 @@
         <v>28</v>
       </c>
       <c r="B62" s="291" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>11</v>
@@ -11279,7 +11273,7 @@
         <v>29</v>
       </c>
       <c r="B63" s="291" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>11</v>
@@ -11431,7 +11425,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="291" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>11</v>
@@ -11450,7 +11444,7 @@
         <v>38</v>
       </c>
       <c r="B72" s="291" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C72" s="35" t="s">
         <v>11</v>
@@ -11469,7 +11463,7 @@
         <v>39</v>
       </c>
       <c r="B73" s="291" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C73" s="35" t="s">
         <v>11</v>
@@ -11488,7 +11482,7 @@
         <v>40</v>
       </c>
       <c r="B74" s="291" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>11</v>
@@ -11708,15 +11702,15 @@
       <c r="H89" s="113"/>
     </row>
     <row r="90" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B90" s="377" t="s">
+      <c r="B90" s="386" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="377"/>
-      <c r="D90" s="377"/>
-      <c r="E90" s="377"/>
-      <c r="F90" s="377"/>
-      <c r="G90" s="377"/>
-      <c r="H90" s="377"/>
+      <c r="C90" s="386"/>
+      <c r="D90" s="386"/>
+      <c r="E90" s="386"/>
+      <c r="F90" s="386"/>
+      <c r="G90" s="386"/>
+      <c r="H90" s="386"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="113"/>
@@ -11811,22 +11805,22 @@
       <c r="H98" s="113"/>
     </row>
     <row r="99" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="376"/>
-      <c r="C99" s="376"/>
-      <c r="D99" s="376"/>
+      <c r="B99" s="393"/>
+      <c r="C99" s="393"/>
+      <c r="D99" s="393"/>
       <c r="E99" s="113"/>
       <c r="F99" s="113"/>
       <c r="G99" s="113"/>
       <c r="H99" s="113"/>
     </row>
     <row r="100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="386" t="s">
+      <c r="B100" s="387" t="s">
         <v>243</v>
       </c>
-      <c r="C100" s="387"/>
-      <c r="D100" s="387"/>
-      <c r="E100" s="387"/>
-      <c r="F100" s="388"/>
+      <c r="C100" s="388"/>
+      <c r="D100" s="388"/>
+      <c r="E100" s="388"/>
+      <c r="F100" s="389"/>
       <c r="G100" s="113"/>
       <c r="H100" s="113"/>
     </row>
@@ -11853,13 +11847,13 @@
       <c r="H102" s="113"/>
     </row>
     <row r="103" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="392" t="s">
+      <c r="B103" s="383" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="393"/>
-      <c r="D103" s="393"/>
-      <c r="E103" s="393"/>
-      <c r="F103" s="394"/>
+      <c r="C103" s="384"/>
+      <c r="D103" s="384"/>
+      <c r="E103" s="384"/>
+      <c r="F103" s="385"/>
       <c r="G103" s="113"/>
       <c r="H103" s="113"/>
     </row>
@@ -12189,13 +12183,13 @@
       <c r="H121" s="113"/>
     </row>
     <row r="122" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="389" t="s">
+      <c r="B122" s="390" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="390"/>
-      <c r="D122" s="390"/>
-      <c r="E122" s="390"/>
-      <c r="F122" s="391"/>
+      <c r="C122" s="391"/>
+      <c r="D122" s="391"/>
+      <c r="E122" s="391"/>
+      <c r="F122" s="392"/>
       <c r="G122" s="113"/>
       <c r="H122" s="113"/>
     </row>
@@ -12222,13 +12216,13 @@
       <c r="H124" s="113"/>
     </row>
     <row r="125" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="392" t="s">
+      <c r="B125" s="383" t="s">
         <v>73</v>
       </c>
-      <c r="C125" s="393"/>
-      <c r="D125" s="393"/>
-      <c r="E125" s="393"/>
-      <c r="F125" s="394"/>
+      <c r="C125" s="384"/>
+      <c r="D125" s="384"/>
+      <c r="E125" s="384"/>
+      <c r="F125" s="385"/>
       <c r="G125" s="113"/>
       <c r="H125" s="113"/>
     </row>
@@ -12252,7 +12246,7 @@
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>58</v>
@@ -12271,7 +12265,7 @@
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>59</v>
@@ -12290,7 +12284,7 @@
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>60</v>
@@ -12309,7 +12303,7 @@
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>61</v>
@@ -12328,7 +12322,7 @@
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>74</v>
@@ -12347,7 +12341,7 @@
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>75</v>
@@ -12366,7 +12360,7 @@
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="35" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C133" s="17" t="s">
         <v>76</v>
@@ -12385,7 +12379,7 @@
     </row>
     <row r="134" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>77</v>
@@ -12492,15 +12486,15 @@
       <c r="H142" s="113"/>
     </row>
     <row r="143" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B143" s="377" t="s">
+      <c r="B143" s="386" t="s">
         <v>234</v>
       </c>
-      <c r="C143" s="377"/>
-      <c r="D143" s="377"/>
-      <c r="E143" s="377"/>
-      <c r="F143" s="377"/>
-      <c r="G143" s="377"/>
-      <c r="H143" s="377"/>
+      <c r="C143" s="386"/>
+      <c r="D143" s="386"/>
+      <c r="E143" s="386"/>
+      <c r="F143" s="386"/>
+      <c r="G143" s="386"/>
+      <c r="H143" s="386"/>
     </row>
     <row r="144" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B144" s="143" t="s">
@@ -12588,15 +12582,15 @@
       <c r="H151" s="113"/>
     </row>
     <row r="152" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B152" s="377" t="s">
+      <c r="B152" s="386" t="s">
         <v>250</v>
       </c>
-      <c r="C152" s="377"/>
-      <c r="D152" s="377"/>
-      <c r="E152" s="377"/>
-      <c r="F152" s="377"/>
-      <c r="G152" s="377"/>
-      <c r="H152" s="377"/>
+      <c r="C152" s="386"/>
+      <c r="D152" s="386"/>
+      <c r="E152" s="386"/>
+      <c r="F152" s="386"/>
+      <c r="G152" s="386"/>
+      <c r="H152" s="386"/>
     </row>
     <row r="153" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B153" s="149" t="s">
@@ -12642,11 +12636,11 @@
       <c r="H156" s="113"/>
     </row>
     <row r="157" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="392" t="s">
+      <c r="B157" s="383" t="s">
         <v>84</v>
       </c>
-      <c r="C157" s="393"/>
-      <c r="D157" s="394"/>
+      <c r="C157" s="384"/>
+      <c r="D157" s="385"/>
       <c r="E157" s="113"/>
       <c r="F157" s="113"/>
       <c r="G157" s="113"/>
@@ -12669,7 +12663,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C159" s="45">
         <v>0.1</v>
@@ -12685,7 +12679,7 @@
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C160" s="46">
         <v>0.2</v>
@@ -12701,7 +12695,7 @@
     </row>
     <row r="161" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B161" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C161" s="139">
         <v>0.4</v>
@@ -12717,7 +12711,7 @@
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C162" s="46">
         <v>0.15</v>
@@ -12733,7 +12727,7 @@
     </row>
     <row r="163" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C163" s="47">
         <v>0.15</v>
@@ -12886,13 +12880,6 @@
     <sortCondition ref="B35:B77"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B122:F122"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="C4:D4"/>
@@ -12903,6 +12890,13 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B122:F122"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12915,8 +12909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8259488-AFAA-46F8-8A69-8219B6D584E1}">
   <dimension ref="B1:P315"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12937,26 +12931,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="379" t="s">
+      <c r="B1" s="395" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="379"/>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
-      <c r="H1" s="379"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="414" t="s">
+      <c r="B2" s="428" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="414"/>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="428"/>
+      <c r="G2" s="428"/>
+      <c r="H2" s="428"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="158" t="s">
@@ -13013,25 +13007,25 @@
       <c r="H7" s="113"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="397" t="s">
+      <c r="B8" s="405" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="397"/>
-      <c r="D8" s="397"/>
-      <c r="E8" s="397"/>
-      <c r="F8" s="397"/>
-      <c r="G8" s="397"/>
-      <c r="H8" s="397"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="405"/>
+      <c r="F8" s="405"/>
+      <c r="G8" s="405"/>
+      <c r="H8" s="405"/>
     </row>
     <row r="9" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="398" t="s">
+      <c r="B9" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="399"/>
-      <c r="D9" s="399"/>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
-      <c r="G9" s="400"/>
+      <c r="C9" s="403"/>
+      <c r="D9" s="403"/>
+      <c r="E9" s="403"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="404"/>
       <c r="H9" s="113"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13174,24 +13168,24 @@
       <c r="H17" s="113"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="397" t="s">
+      <c r="B18" s="405" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="397"/>
-      <c r="D18" s="397"/>
-      <c r="E18" s="397"/>
-      <c r="F18" s="397"/>
-      <c r="G18" s="397"/>
-      <c r="H18" s="397"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="405"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="405"/>
+      <c r="H18" s="405"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="398" t="s">
+      <c r="B19" s="402" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="399"/>
-      <c r="D19" s="399"/>
-      <c r="E19" s="399"/>
-      <c r="F19" s="400"/>
+      <c r="C19" s="403"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="404"/>
       <c r="G19" s="113"/>
       <c r="H19" s="113"/>
     </row>
@@ -13216,7 +13210,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>383</v>
@@ -13236,7 +13230,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="59" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C22" s="79" t="s">
         <v>383</v>
@@ -13256,7 +13250,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="59" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C23" s="79" t="s">
         <v>383</v>
@@ -13316,7 +13310,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="300" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C26" s="299" t="s">
         <v>382</v>
@@ -13386,23 +13380,23 @@
       <c r="H30" s="113"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="397" t="s">
+      <c r="B31" s="405" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="397"/>
-      <c r="D31" s="397"/>
-      <c r="E31" s="397"/>
-      <c r="F31" s="397"/>
-      <c r="G31" s="397"/>
-      <c r="H31" s="397"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="405"/>
+      <c r="E31" s="405"/>
+      <c r="F31" s="405"/>
+      <c r="G31" s="405"/>
+      <c r="H31" s="405"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="398" t="s">
+      <c r="B32" s="402" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="399"/>
-      <c r="D32" s="399"/>
-      <c r="E32" s="400"/>
+      <c r="C32" s="403"/>
+      <c r="D32" s="403"/>
+      <c r="E32" s="404"/>
       <c r="F32" s="113"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
@@ -13507,11 +13501,11 @@
       <c r="H40" s="113"/>
     </row>
     <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="415" t="s">
+      <c r="B41" s="429" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="416"/>
-      <c r="D41" s="417"/>
+      <c r="C41" s="430"/>
+      <c r="D41" s="431"/>
       <c r="E41" s="113"/>
       <c r="F41" s="113"/>
       <c r="G41" s="113"/>
@@ -13612,15 +13606,15 @@
       <c r="H48" s="113"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="404" t="s">
+      <c r="B49" s="409" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="404"/>
-      <c r="D49" s="404"/>
-      <c r="E49" s="404"/>
-      <c r="F49" s="404"/>
-      <c r="G49" s="404"/>
-      <c r="H49" s="404"/>
+      <c r="C49" s="409"/>
+      <c r="D49" s="409"/>
+      <c r="E49" s="409"/>
+      <c r="F49" s="409"/>
+      <c r="G49" s="409"/>
+      <c r="H49" s="409"/>
     </row>
     <row r="50" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B50" s="158" t="s">
@@ -13698,24 +13692,24 @@
       <c r="H55" s="113"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="397" t="s">
+      <c r="B56" s="405" t="s">
         <v>261</v>
       </c>
-      <c r="C56" s="397"/>
-      <c r="D56" s="397"/>
-      <c r="E56" s="397"/>
-      <c r="F56" s="397"/>
-      <c r="G56" s="397"/>
-      <c r="H56" s="397"/>
+      <c r="C56" s="405"/>
+      <c r="D56" s="405"/>
+      <c r="E56" s="405"/>
+      <c r="F56" s="405"/>
+      <c r="G56" s="405"/>
+      <c r="H56" s="405"/>
     </row>
     <row r="57" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="398" t="s">
+      <c r="B57" s="402" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="399"/>
-      <c r="D57" s="399"/>
-      <c r="E57" s="399"/>
-      <c r="F57" s="400"/>
+      <c r="C57" s="403"/>
+      <c r="D57" s="403"/>
+      <c r="E57" s="403"/>
+      <c r="F57" s="404"/>
       <c r="G57" s="113"/>
       <c r="H57" s="113"/>
     </row>
@@ -13724,7 +13718,7 @@
         <v>388</v>
       </c>
       <c r="C58" s="235" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D58" s="235" t="s">
         <v>95</v>
@@ -13804,24 +13798,24 @@
       <c r="H62" s="113"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="397" t="s">
+      <c r="B63" s="405" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="397"/>
-      <c r="D63" s="397"/>
-      <c r="E63" s="397"/>
-      <c r="F63" s="397"/>
-      <c r="G63" s="397"/>
-      <c r="H63" s="397"/>
+      <c r="C63" s="405"/>
+      <c r="D63" s="405"/>
+      <c r="E63" s="405"/>
+      <c r="F63" s="405"/>
+      <c r="G63" s="405"/>
+      <c r="H63" s="405"/>
     </row>
     <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="398" t="s">
+      <c r="B64" s="402" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="399"/>
-      <c r="D64" s="399"/>
-      <c r="E64" s="399"/>
-      <c r="F64" s="400"/>
+      <c r="C64" s="403"/>
+      <c r="D64" s="403"/>
+      <c r="E64" s="403"/>
+      <c r="F64" s="404"/>
       <c r="G64" s="113"/>
       <c r="H64" s="113"/>
     </row>
@@ -13867,7 +13861,7 @@
         <v>394</v>
       </c>
       <c r="C67" s="79">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" s="79" t="s">
         <v>334</v>
@@ -13877,32 +13871,21 @@
       </c>
       <c r="F67" s="343">
         <f>E67*C67</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" s="113"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="C68" s="79">
-        <v>10</v>
-      </c>
-      <c r="D68" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="E68" s="325">
-        <v>1.5</v>
-      </c>
-      <c r="F68" s="343">
-        <f>E68*C68</f>
-        <v>15</v>
-      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="325"/>
+      <c r="F68" s="343"/>
       <c r="H68" s="113"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="259" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C69" s="79">
         <v>4</v>
@@ -13911,17 +13894,17 @@
         <v>334</v>
       </c>
       <c r="E69" s="325">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="F69" s="343">
         <f>E69*C69</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H69" s="113"/>
     </row>
     <row r="70" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" s="80">
         <v>8</v>
@@ -13950,11 +13933,11 @@
       </c>
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
-      <c r="J71" s="396" t="s">
+      <c r="J71" s="433" t="s">
         <v>285</v>
       </c>
-      <c r="K71" s="396"/>
-      <c r="L71" s="396"/>
+      <c r="K71" s="433"/>
+      <c r="L71" s="433"/>
       <c r="M71" s="168">
         <f>'Tiempo de desarrollo'!F171*'Tiempo de desarrollo'!G171</f>
         <v>24</v>
@@ -13968,35 +13951,35 @@
       <c r="F72" s="113"/>
       <c r="G72" s="113"/>
       <c r="H72" s="113"/>
-      <c r="J72" s="429" t="s">
-        <v>447</v>
-      </c>
-      <c r="K72" s="429"/>
-      <c r="L72" s="429"/>
+      <c r="J72" s="410" t="s">
+        <v>445</v>
+      </c>
+      <c r="K72" s="410"/>
+      <c r="L72" s="410"/>
       <c r="M72" s="132">
         <v>0.73519999999999996</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="397" t="s">
+      <c r="B73" s="405" t="s">
         <v>263</v>
       </c>
-      <c r="C73" s="397"/>
-      <c r="D73" s="397"/>
-      <c r="E73" s="397"/>
-      <c r="F73" s="397"/>
-      <c r="G73" s="397"/>
-      <c r="H73" s="397"/>
+      <c r="C73" s="405"/>
+      <c r="D73" s="405"/>
+      <c r="E73" s="405"/>
+      <c r="F73" s="405"/>
+      <c r="G73" s="405"/>
+      <c r="H73" s="405"/>
     </row>
     <row r="74" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="405" t="s">
+      <c r="B74" s="411" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="406"/>
-      <c r="D74" s="406"/>
-      <c r="E74" s="406"/>
-      <c r="F74" s="406"/>
-      <c r="G74" s="407"/>
+      <c r="C74" s="412"/>
+      <c r="D74" s="412"/>
+      <c r="E74" s="412"/>
+      <c r="F74" s="412"/>
+      <c r="G74" s="413"/>
       <c r="H74" s="113"/>
       <c r="J74" s="265" t="s">
         <v>210</v>
@@ -14008,11 +13991,11 @@
       <c r="M74" s="173" t="s">
         <v>211</v>
       </c>
-      <c r="N74" s="395" t="s">
-        <v>461</v>
-      </c>
-      <c r="O74" s="396"/>
-      <c r="P74" s="396"/>
+      <c r="N74" s="432" t="s">
+        <v>459</v>
+      </c>
+      <c r="O74" s="433"/>
+      <c r="P74" s="433"/>
     </row>
     <row r="75" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="163" t="s">
@@ -14045,12 +14028,12 @@
         <v>213</v>
       </c>
       <c r="N75" s="339" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="293" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C76" s="327">
         <f>K78</f>
@@ -14089,7 +14072,7 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="292" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C77" s="328">
         <f>K78</f>
@@ -14118,7 +14101,7 @@
     </row>
     <row r="78" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C78" s="329">
         <f>K78</f>
@@ -14176,15 +14159,15 @@
       <c r="M80" s="175"/>
     </row>
     <row r="81" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="397" t="s">
+      <c r="B81" s="405" t="s">
         <v>264</v>
       </c>
-      <c r="C81" s="397"/>
-      <c r="D81" s="397"/>
-      <c r="E81" s="397"/>
-      <c r="F81" s="397"/>
-      <c r="G81" s="397"/>
-      <c r="H81" s="397"/>
+      <c r="C81" s="405"/>
+      <c r="D81" s="405"/>
+      <c r="E81" s="405"/>
+      <c r="F81" s="405"/>
+      <c r="G81" s="405"/>
+      <c r="H81" s="405"/>
       <c r="J81" s="266" t="s">
         <v>217</v>
       </c>
@@ -14195,20 +14178,20 @@
       <c r="M81" s="175" t="s">
         <v>211</v>
       </c>
-      <c r="N81" s="395" t="s">
-        <v>462</v>
-      </c>
-      <c r="O81" s="396"/>
-      <c r="P81" s="396"/>
+      <c r="N81" s="432" t="s">
+        <v>460</v>
+      </c>
+      <c r="O81" s="433"/>
+      <c r="P81" s="433"/>
     </row>
     <row r="82" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="398" t="s">
+      <c r="B82" s="402" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="399"/>
-      <c r="D82" s="399"/>
-      <c r="E82" s="399"/>
-      <c r="F82" s="400"/>
+      <c r="C82" s="403"/>
+      <c r="D82" s="403"/>
+      <c r="E82" s="403"/>
+      <c r="F82" s="404"/>
       <c r="G82" s="113"/>
       <c r="H82" s="113"/>
       <c r="J82" s="266" t="s">
@@ -14222,7 +14205,7 @@
         <v>213</v>
       </c>
       <c r="N82" s="339" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14260,7 +14243,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C84" s="26">
         <v>1</v>
@@ -14285,7 +14268,7 @@
     </row>
     <row r="85" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C85" s="261">
         <v>1</v>
@@ -14347,25 +14330,25 @@
       <c r="I87" s="113"/>
     </row>
     <row r="88" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="397" t="s">
+      <c r="B88" s="405" t="s">
         <v>331</v>
       </c>
-      <c r="C88" s="397"/>
-      <c r="D88" s="397"/>
-      <c r="E88" s="397"/>
-      <c r="F88" s="397"/>
-      <c r="G88" s="397"/>
-      <c r="H88" s="397"/>
+      <c r="C88" s="405"/>
+      <c r="D88" s="405"/>
+      <c r="E88" s="405"/>
+      <c r="F88" s="405"/>
+      <c r="G88" s="405"/>
+      <c r="H88" s="405"/>
       <c r="I88" s="113"/>
     </row>
     <row r="89" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="398" t="s">
+      <c r="B89" s="402" t="s">
         <v>325</v>
       </c>
-      <c r="C89" s="399"/>
-      <c r="D89" s="399"/>
-      <c r="E89" s="399"/>
-      <c r="F89" s="400"/>
+      <c r="C89" s="403"/>
+      <c r="D89" s="403"/>
+      <c r="E89" s="403"/>
+      <c r="F89" s="404"/>
       <c r="G89" s="113"/>
       <c r="H89" s="113"/>
       <c r="I89" s="113"/>
@@ -14504,11 +14487,11 @@
       <c r="H98" s="113"/>
     </row>
     <row r="99" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="401" t="s">
+      <c r="B99" s="406" t="s">
         <v>326</v>
       </c>
-      <c r="C99" s="402"/>
-      <c r="D99" s="403"/>
+      <c r="C99" s="407"/>
+      <c r="D99" s="408"/>
       <c r="E99" s="113"/>
       <c r="F99" s="166"/>
       <c r="G99" s="113"/>
@@ -14519,7 +14502,7 @@
         <v>103</v>
       </c>
       <c r="C100" s="71" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D100" s="72" t="s">
         <v>105</v>
@@ -14673,15 +14656,15 @@
       <c r="H111" s="113"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="404" t="s">
+      <c r="B112" s="409" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="404"/>
-      <c r="D112" s="404"/>
-      <c r="E112" s="404"/>
-      <c r="F112" s="404"/>
-      <c r="G112" s="404"/>
-      <c r="H112" s="404"/>
+      <c r="C112" s="409"/>
+      <c r="D112" s="409"/>
+      <c r="E112" s="409"/>
+      <c r="F112" s="409"/>
+      <c r="G112" s="409"/>
+      <c r="H112" s="409"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="113"/>
@@ -14693,25 +14676,25 @@
       <c r="H113" s="113"/>
     </row>
     <row r="114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="397" t="s">
+      <c r="B114" s="405" t="s">
         <v>132</v>
       </c>
-      <c r="C114" s="397"/>
-      <c r="D114" s="397"/>
-      <c r="E114" s="397"/>
-      <c r="F114" s="397"/>
-      <c r="G114" s="397"/>
-      <c r="H114" s="397"/>
+      <c r="C114" s="405"/>
+      <c r="D114" s="405"/>
+      <c r="E114" s="405"/>
+      <c r="F114" s="405"/>
+      <c r="G114" s="405"/>
+      <c r="H114" s="405"/>
     </row>
     <row r="115" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="398" t="s">
+      <c r="B115" s="402" t="s">
         <v>327</v>
       </c>
-      <c r="C115" s="399"/>
-      <c r="D115" s="399"/>
-      <c r="E115" s="399"/>
-      <c r="F115" s="399"/>
-      <c r="G115" s="400"/>
+      <c r="C115" s="403"/>
+      <c r="D115" s="403"/>
+      <c r="E115" s="403"/>
+      <c r="F115" s="403"/>
+      <c r="G115" s="404"/>
       <c r="H115" s="113"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14728,7 +14711,7 @@
         <v>115</v>
       </c>
       <c r="F116" s="193" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G116" s="277" t="s">
         <v>96</v>
@@ -14736,10 +14719,10 @@
     </row>
     <row r="117" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D117" s="29">
         <f>4*4*40</f>
@@ -14779,14 +14762,14 @@
       <c r="H119" s="113"/>
     </row>
     <row r="120" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="398" t="s">
+      <c r="B120" s="402" t="s">
         <v>328</v>
       </c>
-      <c r="C120" s="399"/>
-      <c r="D120" s="399"/>
-      <c r="E120" s="399"/>
-      <c r="F120" s="399"/>
-      <c r="G120" s="400"/>
+      <c r="C120" s="403"/>
+      <c r="D120" s="403"/>
+      <c r="E120" s="403"/>
+      <c r="F120" s="403"/>
+      <c r="G120" s="404"/>
       <c r="H120" s="113"/>
     </row>
     <row r="121" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14803,7 +14786,7 @@
         <v>115</v>
       </c>
       <c r="F121" s="193" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G121" s="282" t="s">
         <v>96</v>
@@ -14832,7 +14815,7 @@
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="274" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C123" s="271" t="s">
         <v>336</v>
@@ -14853,7 +14836,7 @@
     </row>
     <row r="124" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="275" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C124" s="221" t="s">
         <v>336</v>
@@ -14893,11 +14876,11 @@
       <c r="H126" s="113"/>
     </row>
     <row r="127" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="401" t="s">
+      <c r="B127" s="406" t="s">
         <v>329</v>
       </c>
-      <c r="C127" s="402"/>
-      <c r="D127" s="403"/>
+      <c r="C127" s="407"/>
+      <c r="D127" s="408"/>
       <c r="E127" s="167"/>
       <c r="F127" s="167"/>
       <c r="G127" s="113"/>
@@ -14974,15 +14957,15 @@
       <c r="H132" s="113"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="404" t="s">
+      <c r="B133" s="409" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="404"/>
-      <c r="D133" s="404"/>
-      <c r="E133" s="404"/>
-      <c r="F133" s="404"/>
-      <c r="G133" s="404"/>
-      <c r="H133" s="404"/>
+      <c r="C133" s="409"/>
+      <c r="D133" s="409"/>
+      <c r="E133" s="409"/>
+      <c r="F133" s="409"/>
+      <c r="G133" s="409"/>
+      <c r="H133" s="409"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="113"/>
@@ -15073,24 +15056,24 @@
       <c r="H141" s="113"/>
     </row>
     <row r="142" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="397" t="s">
+      <c r="B142" s="405" t="s">
         <v>261</v>
       </c>
-      <c r="C142" s="397"/>
-      <c r="D142" s="397"/>
-      <c r="E142" s="397"/>
-      <c r="F142" s="397"/>
-      <c r="G142" s="397"/>
-      <c r="H142" s="397"/>
+      <c r="C142" s="405"/>
+      <c r="D142" s="405"/>
+      <c r="E142" s="405"/>
+      <c r="F142" s="405"/>
+      <c r="G142" s="405"/>
+      <c r="H142" s="405"/>
     </row>
     <row r="143" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="398" t="s">
+      <c r="B143" s="402" t="s">
         <v>222</v>
       </c>
-      <c r="C143" s="399"/>
-      <c r="D143" s="399"/>
-      <c r="E143" s="399"/>
-      <c r="F143" s="400"/>
+      <c r="C143" s="403"/>
+      <c r="D143" s="403"/>
+      <c r="E143" s="403"/>
+      <c r="F143" s="404"/>
       <c r="G143" s="167"/>
       <c r="H143" s="113"/>
     </row>
@@ -15113,7 +15096,7 @@
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="270" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C145" s="57">
         <v>1</v>
@@ -15171,24 +15154,24 @@
       <c r="H148" s="113"/>
     </row>
     <row r="149" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="397" t="s">
+      <c r="B149" s="405" t="s">
         <v>262</v>
       </c>
-      <c r="C149" s="397"/>
-      <c r="D149" s="397"/>
-      <c r="E149" s="397"/>
-      <c r="F149" s="397"/>
-      <c r="G149" s="397"/>
-      <c r="H149" s="397"/>
+      <c r="C149" s="405"/>
+      <c r="D149" s="405"/>
+      <c r="E149" s="405"/>
+      <c r="F149" s="405"/>
+      <c r="G149" s="405"/>
+      <c r="H149" s="405"/>
     </row>
     <row r="150" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="405" t="s">
+      <c r="B150" s="411" t="s">
         <v>223</v>
       </c>
-      <c r="C150" s="406"/>
-      <c r="D150" s="406"/>
-      <c r="E150" s="406"/>
-      <c r="F150" s="407"/>
+      <c r="C150" s="412"/>
+      <c r="D150" s="412"/>
+      <c r="E150" s="412"/>
+      <c r="F150" s="413"/>
       <c r="G150" s="252"/>
       <c r="H150" s="113"/>
     </row>
@@ -15212,28 +15195,17 @@
       <c r="H151" s="113"/>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="272" t="s">
-        <v>406</v>
-      </c>
-      <c r="C152" s="273" t="s">
-        <v>334</v>
-      </c>
-      <c r="D152" s="273">
-        <v>4</v>
-      </c>
-      <c r="E152" s="333">
-        <v>1</v>
-      </c>
-      <c r="F152" s="342">
-        <f>E152*D152</f>
-        <v>4</v>
-      </c>
+      <c r="B152" s="272"/>
+      <c r="C152" s="273"/>
+      <c r="D152" s="273"/>
+      <c r="E152" s="333"/>
+      <c r="F152" s="342"/>
       <c r="G152" s="113"/>
       <c r="H152" s="113"/>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="274" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C153" s="271" t="s">
         <v>333</v>
@@ -15242,18 +15214,18 @@
         <v>2</v>
       </c>
       <c r="E153" s="331">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F153" s="343">
         <f>E153*D153</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G153" s="113"/>
       <c r="H153" s="113"/>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="274" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C154" s="271" t="s">
         <v>336</v>
@@ -15273,7 +15245,7 @@
     </row>
     <row r="155" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="275" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C155" s="221" t="s">
         <v>336</v>
@@ -15318,30 +15290,30 @@
       <c r="M157" s="313"/>
     </row>
     <row r="158" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="397" t="s">
+      <c r="B158" s="405" t="s">
         <v>269</v>
       </c>
-      <c r="C158" s="397"/>
-      <c r="D158" s="397"/>
-      <c r="E158" s="397"/>
-      <c r="F158" s="397"/>
-      <c r="G158" s="397"/>
-      <c r="H158" s="397"/>
+      <c r="C158" s="405"/>
+      <c r="D158" s="405"/>
+      <c r="E158" s="405"/>
+      <c r="F158" s="405"/>
+      <c r="G158" s="405"/>
+      <c r="H158" s="405"/>
       <c r="J158" s="320"/>
       <c r="K158" s="320"/>
       <c r="L158" s="320"/>
       <c r="M158" s="312"/>
     </row>
     <row r="159" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="411" t="s">
+      <c r="B159" s="425" t="s">
         <v>139</v>
       </c>
-      <c r="C159" s="412"/>
-      <c r="D159" s="412"/>
-      <c r="E159" s="412"/>
-      <c r="F159" s="412"/>
-      <c r="G159" s="412"/>
-      <c r="H159" s="413"/>
+      <c r="C159" s="426"/>
+      <c r="D159" s="426"/>
+      <c r="E159" s="426"/>
+      <c r="F159" s="426"/>
+      <c r="G159" s="426"/>
+      <c r="H159" s="427"/>
     </row>
     <row r="160" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="191" t="s">
@@ -15351,13 +15323,13 @@
         <v>95</v>
       </c>
       <c r="D160" s="83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E160" s="193" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F160" s="193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G160" s="204" t="s">
         <v>304</v>
@@ -15369,7 +15341,7 @@
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C161" s="26">
         <f>SUM(E11:E12)</f>
@@ -15454,25 +15426,25 @@
       <c r="J164" s="321"/>
     </row>
     <row r="165" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="397" t="s">
+      <c r="B165" s="405" t="s">
         <v>272</v>
       </c>
-      <c r="C165" s="397"/>
-      <c r="D165" s="397"/>
-      <c r="E165" s="397"/>
-      <c r="F165" s="397"/>
-      <c r="G165" s="397"/>
-      <c r="H165" s="397"/>
+      <c r="C165" s="405"/>
+      <c r="D165" s="405"/>
+      <c r="E165" s="405"/>
+      <c r="F165" s="405"/>
+      <c r="G165" s="405"/>
+      <c r="H165" s="405"/>
       <c r="J165" s="321"/>
     </row>
     <row r="166" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="398" t="s">
+      <c r="B166" s="402" t="s">
         <v>140</v>
       </c>
-      <c r="C166" s="399"/>
-      <c r="D166" s="399"/>
-      <c r="E166" s="399"/>
-      <c r="F166" s="400"/>
+      <c r="C166" s="403"/>
+      <c r="D166" s="403"/>
+      <c r="E166" s="403"/>
+      <c r="F166" s="404"/>
       <c r="G166" s="252"/>
       <c r="H166" s="113"/>
       <c r="J166" s="321"/>
@@ -15485,7 +15457,7 @@
         <v>95</v>
       </c>
       <c r="D167" s="84" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E167" s="49" t="s">
         <v>122</v>
@@ -15521,7 +15493,7 @@
     </row>
     <row r="169" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C169" s="29">
         <v>1</v>
@@ -15566,24 +15538,24 @@
       <c r="J171" s="321"/>
     </row>
     <row r="172" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="397" t="s">
+      <c r="B172" s="405" t="s">
         <v>273</v>
       </c>
-      <c r="C172" s="397"/>
-      <c r="D172" s="397"/>
-      <c r="E172" s="397"/>
-      <c r="F172" s="397"/>
-      <c r="G172" s="397"/>
-      <c r="H172" s="397"/>
+      <c r="C172" s="405"/>
+      <c r="D172" s="405"/>
+      <c r="E172" s="405"/>
+      <c r="F172" s="405"/>
+      <c r="G172" s="405"/>
+      <c r="H172" s="405"/>
     </row>
     <row r="173" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="408" t="s">
+      <c r="B173" s="434" t="s">
         <v>141</v>
       </c>
-      <c r="C173" s="409"/>
-      <c r="D173" s="409"/>
-      <c r="E173" s="409"/>
-      <c r="F173" s="410"/>
+      <c r="C173" s="435"/>
+      <c r="D173" s="435"/>
+      <c r="E173" s="435"/>
+      <c r="F173" s="436"/>
       <c r="G173" s="113"/>
       <c r="H173" s="113"/>
     </row>
@@ -15607,7 +15579,7 @@
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C175" s="26">
         <f>SUM(E11:E12)</f>
@@ -15667,24 +15639,24 @@
       <c r="H178" s="113"/>
     </row>
     <row r="179" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="397" t="s">
+      <c r="B179" s="405" t="s">
         <v>274</v>
       </c>
-      <c r="C179" s="397"/>
-      <c r="D179" s="397"/>
-      <c r="E179" s="397"/>
-      <c r="F179" s="397"/>
-      <c r="G179" s="397"/>
-      <c r="H179" s="397"/>
+      <c r="C179" s="405"/>
+      <c r="D179" s="405"/>
+      <c r="E179" s="405"/>
+      <c r="F179" s="405"/>
+      <c r="G179" s="405"/>
+      <c r="H179" s="405"/>
     </row>
     <row r="180" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="405" t="s">
+      <c r="B180" s="411" t="s">
         <v>142</v>
       </c>
-      <c r="C180" s="406"/>
-      <c r="D180" s="406"/>
-      <c r="E180" s="406"/>
-      <c r="F180" s="407"/>
+      <c r="C180" s="412"/>
+      <c r="D180" s="412"/>
+      <c r="E180" s="412"/>
+      <c r="F180" s="413"/>
       <c r="G180" s="113"/>
       <c r="H180" s="113"/>
     </row>
@@ -15708,7 +15680,7 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="363" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C182" s="57">
         <f>SUM(E10:E11)</f>
@@ -15729,7 +15701,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="292" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C183" s="260">
         <v>1</v>
@@ -15824,11 +15796,11 @@
       <c r="H189" s="113"/>
     </row>
     <row r="190" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="401" t="s">
+      <c r="B190" s="406" t="s">
         <v>144</v>
       </c>
-      <c r="C190" s="402"/>
-      <c r="D190" s="403"/>
+      <c r="C190" s="407"/>
+      <c r="D190" s="408"/>
       <c r="E190" s="113"/>
       <c r="F190" s="113"/>
       <c r="G190" s="113"/>
@@ -15968,10 +15940,10 @@
       <c r="H199" s="113"/>
     </row>
     <row r="200" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="424" t="s">
+      <c r="B200" s="420" t="s">
         <v>147</v>
       </c>
-      <c r="C200" s="424"/>
+      <c r="C200" s="420"/>
       <c r="D200" s="113"/>
       <c r="E200" s="113"/>
       <c r="F200" s="113"/>
@@ -15979,10 +15951,10 @@
       <c r="H200" s="113"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="422" t="s">
+      <c r="B201" s="418" t="s">
         <v>148</v>
       </c>
-      <c r="C201" s="423"/>
+      <c r="C201" s="419"/>
       <c r="D201" s="113"/>
       <c r="E201" s="113"/>
       <c r="F201" s="113"/>
@@ -16086,24 +16058,24 @@
       <c r="H209" s="113"/>
     </row>
     <row r="210" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="404" t="s">
+      <c r="B210" s="409" t="s">
         <v>295</v>
       </c>
-      <c r="C210" s="404"/>
-      <c r="D210" s="404"/>
-      <c r="E210" s="404"/>
-      <c r="F210" s="404"/>
-      <c r="G210" s="404"/>
-      <c r="H210" s="404"/>
+      <c r="C210" s="409"/>
+      <c r="D210" s="409"/>
+      <c r="E210" s="409"/>
+      <c r="F210" s="409"/>
+      <c r="G210" s="409"/>
+      <c r="H210" s="409"/>
     </row>
     <row r="211" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="426" t="s">
+      <c r="B211" s="422" t="s">
         <v>275</v>
       </c>
-      <c r="C211" s="427"/>
-      <c r="D211" s="427"/>
-      <c r="E211" s="427"/>
-      <c r="F211" s="428"/>
+      <c r="C211" s="423"/>
+      <c r="D211" s="423"/>
+      <c r="E211" s="423"/>
+      <c r="F211" s="424"/>
       <c r="G211" s="113"/>
       <c r="H211" s="113"/>
     </row>
@@ -16555,15 +16527,15 @@
       <c r="H239" s="113"/>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="404" t="s">
+      <c r="B240" s="409" t="s">
         <v>278</v>
       </c>
-      <c r="C240" s="404"/>
-      <c r="D240" s="404"/>
-      <c r="E240" s="404"/>
-      <c r="F240" s="404"/>
-      <c r="G240" s="404"/>
-      <c r="H240" s="404"/>
+      <c r="C240" s="409"/>
+      <c r="D240" s="409"/>
+      <c r="E240" s="409"/>
+      <c r="F240" s="409"/>
+      <c r="G240" s="409"/>
+      <c r="H240" s="409"/>
     </row>
     <row r="241" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B241" s="88" t="s">
@@ -16632,7 +16604,7 @@
       </c>
       <c r="E244" s="113"/>
       <c r="F244" s="371" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G244" s="373"/>
       <c r="H244" s="371"/>
@@ -16658,7 +16630,7 @@
         <v>0.1145</v>
       </c>
       <c r="F245" s="339" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J245" s="241">
         <v>0.3</v>
@@ -16986,10 +16958,10 @@
       <c r="H265" s="113"/>
     </row>
     <row r="266" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B266" s="425" t="s">
+      <c r="B266" s="421" t="s">
         <v>299</v>
       </c>
-      <c r="C266" s="425"/>
+      <c r="C266" s="421"/>
       <c r="D266" s="113"/>
       <c r="E266" s="113"/>
       <c r="F266" s="113"/>
@@ -17006,7 +16978,7 @@
     </row>
     <row r="268" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="154" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C268" s="144" t="s">
         <v>196</v>
@@ -17024,10 +16996,10 @@
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="113"/>
       <c r="C269" s="144" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D269" s="136" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E269" s="113"/>
       <c r="F269" s="113"/>
@@ -17037,10 +17009,10 @@
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="113"/>
       <c r="C270" s="123" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D270" s="136" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E270" s="113"/>
       <c r="F270" s="113"/>
@@ -17058,7 +17030,7 @@
     </row>
     <row r="272" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C272" s="113"/>
       <c r="D272" s="113"/>
@@ -17104,7 +17076,7 @@
     </row>
     <row r="276" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B276" s="180" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C276" s="74">
         <f>(C279/C280)+(D279/D280)+(E279/E280)+(F279/F280)</f>
@@ -17197,7 +17169,7 @@
     </row>
     <row r="282" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C282" s="113"/>
       <c r="D282" s="113"/>
@@ -17243,7 +17215,7 @@
     </row>
     <row r="286" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="180" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C286" s="74">
         <f>(C289)+(D289/D290)+(E289/E290)+(F289/F290)</f>
@@ -17356,10 +17328,10 @@
       <c r="H293" s="113"/>
     </row>
     <row r="294" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B294" s="418" t="s">
+      <c r="B294" s="414" t="s">
         <v>300</v>
       </c>
-      <c r="C294" s="418"/>
+      <c r="C294" s="414"/>
       <c r="D294" s="113"/>
       <c r="E294" s="113"/>
       <c r="F294" s="113"/>
@@ -17560,11 +17532,11 @@
         <v>Aprobado</v>
       </c>
       <c r="F308" s="113"/>
-      <c r="G308" s="396" t="s">
-        <v>463</v>
-      </c>
-      <c r="H308" s="396"/>
-      <c r="I308" s="396"/>
+      <c r="G308" s="433" t="s">
+        <v>461</v>
+      </c>
+      <c r="H308" s="433"/>
+      <c r="I308" s="433"/>
     </row>
     <row r="309" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B309" s="214" t="s">
@@ -17575,7 +17547,7 @@
         <v>0.27290163662274924</v>
       </c>
       <c r="D309" s="218" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E309" s="183" t="str">
         <f>IF(C309&gt;0.18,"Aprobado","Desaprobado")</f>
@@ -17583,7 +17555,7 @@
       </c>
       <c r="F309" s="113"/>
       <c r="G309" s="341" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="310" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17625,11 +17597,11 @@
       <c r="H312" s="113"/>
     </row>
     <row r="313" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="419" t="s">
+      <c r="B313" s="415" t="s">
         <v>307</v>
       </c>
-      <c r="C313" s="420"/>
-      <c r="D313" s="421"/>
+      <c r="C313" s="416"/>
+      <c r="D313" s="417"/>
       <c r="F313" s="113"/>
       <c r="G313" s="113"/>
       <c r="H313" s="113"/>
@@ -17653,27 +17625,22 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B313:D313"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B210:H210"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B240:H240"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="N81:P81"/>
+    <mergeCell ref="G308:I308"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B179:H179"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="B166:F166"/>
     <mergeCell ref="B159:H159"/>
     <mergeCell ref="B158:H158"/>
     <mergeCell ref="B1:H1"/>
@@ -17690,22 +17657,27 @@
     <mergeCell ref="B150:F150"/>
     <mergeCell ref="B142:H142"/>
     <mergeCell ref="B88:H88"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="N81:P81"/>
-    <mergeCell ref="G308:I308"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B179:H179"/>
-    <mergeCell ref="B172:H172"/>
-    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B313:D313"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B210:H210"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B240:H240"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B133:H133"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
@@ -17724,7 +17696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06846434-5AED-491B-BDB8-ACA74A1E0325}">
   <dimension ref="B1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -17739,54 +17711,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="432" t="s">
+      <c r="B1" s="439" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" s="439"/>
+      <c r="D1" s="439"/>
+      <c r="E1" s="439"/>
+      <c r="F1" s="439"/>
+      <c r="G1" s="439"/>
+    </row>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="439" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="439" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="432"/>
-    </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="432" t="s">
+      <c r="C3" s="439"/>
+      <c r="D3" s="439"/>
+      <c r="E3" s="439"/>
+      <c r="F3" s="439"/>
+      <c r="G3" s="439"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="439" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="432" t="s">
+      <c r="C4" s="439"/>
+      <c r="D4" s="439"/>
+      <c r="E4" s="439"/>
+      <c r="F4" s="439"/>
+      <c r="G4" s="439"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="441" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="432" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="432"/>
-      <c r="F4" s="432"/>
-      <c r="G4" s="432"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="434" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="434"/>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="441"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="314"/>
@@ -17803,10 +17775,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="433" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="435" t="s">
+      <c r="B8" s="440" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="442" t="s">
         <v>312</v>
       </c>
       <c r="D8" s="315">
@@ -17824,14 +17796,14 @@
       <c r="H8" s="315">
         <v>0.15</v>
       </c>
-      <c r="I8" s="430" t="s">
+      <c r="I8" s="437" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="431"/>
+      <c r="J8" s="438"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="433"/>
-      <c r="C9" s="435"/>
+      <c r="B9" s="440"/>
+      <c r="C9" s="442"/>
       <c r="D9" s="315" t="s">
         <v>225</v>
       </c>
@@ -17847,8 +17819,8 @@
       <c r="H9" s="315" t="s">
         <v>227</v>
       </c>
-      <c r="I9" s="430"/>
-      <c r="J9" s="431"/>
+      <c r="I9" s="437"/>
+      <c r="J9" s="438"/>
     </row>
     <row r="10" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="316">
@@ -17971,7 +17943,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="319" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D14" s="271">
         <v>4</v>
@@ -18000,7 +17972,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D15" s="271">
         <v>4</v>
@@ -18029,7 +18001,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="319" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D16" s="271">
         <v>4</v>
@@ -18058,7 +18030,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="319" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D17" s="271">
         <v>4</v>
@@ -18087,7 +18059,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D18" s="271">
         <v>4</v>
@@ -18372,29 +18344,29 @@
       <c r="J27" s="340"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="439">
+      <c r="B28" s="379">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="C28" s="440" t="s">
-        <v>469</v>
-      </c>
-      <c r="D28" s="441">
+      <c r="C28" s="380" t="s">
+        <v>467</v>
+      </c>
+      <c r="D28" s="381">
         <v>3</v>
       </c>
-      <c r="E28" s="441">
+      <c r="E28" s="381">
         <v>2</v>
       </c>
-      <c r="F28" s="441">
+      <c r="F28" s="381">
         <v>2</v>
       </c>
-      <c r="G28" s="441">
+      <c r="G28" s="381">
         <v>1</v>
       </c>
-      <c r="H28" s="441">
+      <c r="H28" s="381">
         <v>1</v>
       </c>
-      <c r="I28" s="442">
+      <c r="I28" s="382">
         <f t="shared" ref="I28" si="5">SUMPRODUCT(D28:H28,$D$8:$H$8)</f>
         <v>1.9</v>
       </c>
@@ -18928,7 +18900,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="319" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D47" s="271">
         <v>1</v>
@@ -19044,7 +19016,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="319" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D51" s="271">
         <v>1</v>
@@ -19073,7 +19045,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="319" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D52" s="271">
         <v>1</v>
